--- a/auto-reports-bot/tables/main_table.xlsx
+++ b/auto-reports-bot/tables/main_table.xlsx
@@ -492,63 +492,63 @@
     <row r="2" ht="15.75" customHeight="1" s="9">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 17:01:21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Обычный</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Словакия</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Bingoal</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sl35</t>
+          <t>Lz5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Dagon Stars United FC - Dagon Port FC</t>
         </is>
       </c>
       <c r="H2" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" s="13" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="J2" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Дима</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>103.60</t>
+          <t>58.84</t>
         </is>
       </c>
       <c r="L2" s="13" t="inlineStr">
         <is>
-          <t>96.35</t>
+          <t>-58.84</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N2" s="13" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="O2" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -570,63 +570,63 @@
     <row r="3" ht="15.75" customHeight="1" s="9">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 17:01:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Обычный</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Словакия</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Bingoal</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sl35</t>
+          <t>Lz5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Dagon Stars United FC - Dagon Port FC</t>
         </is>
       </c>
       <c r="H3" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>1.93</v>
+        <v>3.15</v>
       </c>
       <c r="J3" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Дима</t>
         </is>
       </c>
       <c r="K3" s="13" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>35.38</t>
         </is>
       </c>
       <c r="L3" s="13" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>-35.38</t>
         </is>
       </c>
       <c r="M3" s="13" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N3" s="13" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="O3" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -648,12 +648,12 @@
     <row r="4" ht="15.75" customHeight="1" s="9">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -678,33 +678,33 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H4" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Зон</t>
         </is>
       </c>
       <c r="K4" s="13" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>54.90</t>
         </is>
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>-54.90</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N4" s="13" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="O4" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="5" ht="15.75" customHeight="1" s="9">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -756,33 +756,33 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H5" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="13" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="J5" s="13" t="inlineStr">
         <is>
-          <t>Миша</t>
+          <t>Зон</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L5" s="13" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>-9.15</t>
         </is>
       </c>
       <c r="M5" s="13" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N5" s="13" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="O5" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="6" ht="15.75" customHeight="1" s="9">
       <c r="A6" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -834,33 +834,33 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H6" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="13" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="J6" s="13" t="inlineStr">
         <is>
-          <t>Наташа</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>-9.15</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N6" s="13" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="O6" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="7" ht="15.75" customHeight="1" s="9">
       <c r="A7" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -912,33 +912,33 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H7" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="J7" s="13" t="inlineStr">
         <is>
-          <t>Свят</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K7" s="13" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L7" s="13" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>-9.15</t>
         </is>
       </c>
       <c r="M7" s="13" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N7" s="13" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="O7" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="8" ht="15.75" customHeight="1" s="9">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -990,33 +990,33 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H8" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="J8" s="13" t="inlineStr">
         <is>
-          <t>Тони</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K8" s="13" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>-9.15</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N8" s="13" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="O8" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="9" ht="15.75" customHeight="1" s="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1053,48 +1053,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H9" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9" s="13" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J9" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Свят</t>
         </is>
       </c>
       <c r="K9" s="13" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L9" s="13" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>-9.15</t>
         </is>
       </c>
       <c r="M9" s="13" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N9" s="13" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="O9" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="10" ht="15.75" customHeight="1" s="9">
       <c r="A10" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1131,48 +1131,48 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H10" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J10" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K10" s="13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-9.15</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N10" s="13" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="O10" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1194,12 +1194,12 @@
     <row r="11" ht="15.75" customHeight="1" s="9">
       <c r="A11" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1209,48 +1209,48 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H11" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11" s="13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J11" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K11" s="13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>111.10</t>
         </is>
       </c>
       <c r="L11" s="13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-111.10</t>
         </is>
       </c>
       <c r="M11" s="13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N11" s="13" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="12" ht="15.75" customHeight="1" s="9">
       <c r="A12" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1287,48 +1287,48 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H12" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J12" s="13" t="inlineStr">
         <is>
-          <t>Миша</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K12" s="13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="L12" s="13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M12" s="13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N12" s="13" t="inlineStr">
@@ -1350,7 +1350,7 @@
     <row r="13" ht="15.75" customHeight="1" s="9">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1365,48 +1365,48 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H13" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J13" s="13" t="inlineStr">
         <is>
-          <t>Наташа</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K13" s="13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="L13" s="13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M13" s="13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N13" s="13" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="14" ht="15.75" customHeight="1" s="9">
       <c r="A14" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1443,29 +1443,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H14" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J14" s="13" t="inlineStr">
         <is>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="K14" s="13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="L14" s="13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M14" s="13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N14" s="13" t="inlineStr">
@@ -1506,7 +1506,7 @@
     <row r="15" ht="15.75" customHeight="1" s="9">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1521,48 +1521,48 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H15" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J15" s="13" t="inlineStr">
         <is>
-          <t>Тони</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K15" s="13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="L15" s="13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M15" s="13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N15" s="13" t="inlineStr">
@@ -1584,12 +1584,12 @@
     <row r="16" ht="15.75" customHeight="1" s="9">
       <c r="A16" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:57:12</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1614,33 +1614,33 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H16" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="13" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="J16" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K16" s="13" t="inlineStr">
         <is>
-          <t>116.20</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="L16" s="13" t="inlineStr">
         <is>
-          <t>83.66</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M16" s="13" t="inlineStr">
         <is>
-          <t>199.86</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N16" s="13" t="inlineStr">
@@ -1662,7 +1662,7 @@
     <row r="17" ht="15.75" customHeight="1" s="9">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:57:12</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1692,33 +1692,33 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H17" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="J17" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Зон</t>
         </is>
       </c>
       <c r="K17" s="13" t="inlineStr">
         <is>
-          <t>38.73</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="L17" s="13" t="inlineStr">
         <is>
-          <t>27.89</t>
+          <t>-18.52</t>
         </is>
       </c>
       <c r="M17" s="13" t="inlineStr">
         <is>
-          <t>66.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N17" s="13" t="inlineStr">
@@ -1740,17 +1740,17 @@
     <row r="18" ht="15.75" customHeight="1" s="9">
       <c r="A18" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:57:12</t>
+          <t>28.09.2025 19:22:03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Обычный</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Вова</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1770,14 +1770,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Dagon Stars United FC - Dagon Port FC</t>
         </is>
       </c>
       <c r="H18" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="13" t="n">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="J18" s="13" t="inlineStr">
         <is>
@@ -1786,17 +1786,17 @@
       </c>
       <c r="K18" s="13" t="inlineStr">
         <is>
-          <t>38.73</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="L18" s="13" t="inlineStr">
         <is>
-          <t>27.89</t>
+          <t>-74.00</t>
         </is>
       </c>
       <c r="M18" s="13" t="inlineStr">
         <is>
-          <t>66.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N18" s="13" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O18" s="13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1818,12 +1818,12 @@
     <row r="19" ht="15.75" customHeight="1" s="9">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:57:12</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1833,48 +1833,48 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Словакия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sl35</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H19" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19" s="13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="J19" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K19" s="13" t="inlineStr">
         <is>
-          <t>38.73</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="L19" s="13" t="inlineStr">
         <is>
-          <t>27.89</t>
+          <t>-100.00</t>
         </is>
       </c>
       <c r="M19" s="13" t="inlineStr">
         <is>
-          <t>66.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N19" s="13" t="inlineStr">
@@ -1896,12 +1896,12 @@
     <row r="20" ht="15.75" customHeight="1" s="9">
       <c r="A20" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 09:26:49</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1916,43 +1916,43 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H20" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="13" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="J20" s="13" t="inlineStr">
         <is>
-          <t>Миша</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K20" s="13" t="inlineStr">
         <is>
-          <t>83.33</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="L20" s="13" t="inlineStr">
         <is>
-          <t>124.99</t>
+          <t>-16.67</t>
         </is>
       </c>
       <c r="M20" s="13" t="inlineStr">
         <is>
-          <t>208.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N20" s="13" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O20" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="21" ht="15.75" customHeight="1" s="9">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 09:26:49</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1994,43 +1994,43 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H21" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="J21" s="13" t="inlineStr">
         <is>
-          <t>Миша</t>
+          <t>Свят</t>
         </is>
       </c>
       <c r="K21" s="13" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="L21" s="13" t="inlineStr">
         <is>
-          <t>62.50</t>
+          <t>-16.67</t>
         </is>
       </c>
       <c r="M21" s="13" t="inlineStr">
         <is>
-          <t>104.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N21" s="13" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="O21" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="22" ht="15.75" customHeight="1" s="9">
       <c r="A22" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 09:26:49</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2072,43 +2072,43 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H22" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="13" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="J22" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K22" s="13" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="L22" s="13" t="inlineStr">
         <is>
-          <t>62.50</t>
+          <t>-16.67</t>
         </is>
       </c>
       <c r="M22" s="13" t="inlineStr">
         <is>
-          <t>104.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N22" s="13" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="O22" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2130,63 +2130,63 @@
     <row r="23" ht="15.75" customHeight="1" s="9">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 09:47:15</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lz5</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Kalaa Sport-AS Ariana</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H23" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="J23" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K23" s="13" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="L23" s="13" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>-16.67</t>
         </is>
       </c>
       <c r="M23" s="13" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N23" s="13" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="O23" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2208,17 +2208,17 @@
     <row r="24" ht="15.75" customHeight="1" s="9">
       <c r="A24" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 09:54:39</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2228,38 +2228,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H24" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="13" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="J24" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K24" s="13" t="inlineStr">
         <is>
-          <t>83.33</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="L24" s="13" t="inlineStr">
         <is>
-          <t>-83.33</t>
+          <t>-16.67</t>
         </is>
       </c>
       <c r="M24" s="13" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="O24" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="25" ht="15.75" customHeight="1" s="9">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 09:54:39</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H25" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="J25" s="13" t="inlineStr">
         <is>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="K25" s="13" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="L25" s="13" t="inlineStr">
         <is>
-          <t>-41.66</t>
+          <t>-16.67</t>
         </is>
       </c>
       <c r="M25" s="13" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="O25" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2364,58 +2364,58 @@
     <row r="26" ht="15.75" customHeight="1" s="9">
       <c r="A26" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 09:54:39</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H26" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I26" s="13" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="J26" s="13" t="inlineStr">
         <is>
-          <t>Миша</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K26" s="13" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="L26" s="13" t="inlineStr">
         <is>
-          <t>-41.66</t>
+          <t>-62.00</t>
         </is>
       </c>
       <c r="M26" s="13" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="O26" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2442,58 +2442,58 @@
     <row r="27" ht="15.75" customHeight="1" s="9">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H27" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>1.7</v>
       </c>
       <c r="J27" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K27" s="13" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L27" s="13" t="inlineStr">
         <is>
-          <t>-50.00</t>
+          <t>-10.33</t>
         </is>
       </c>
       <c r="M27" s="13" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="O27" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="28" ht="15.75" customHeight="1" s="9">
       <c r="A28" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2530,27 +2530,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H28" s="13" t="n">
@@ -2561,17 +2561,17 @@
       </c>
       <c r="J28" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Свят</t>
         </is>
       </c>
       <c r="K28" s="13" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L28" s="13" t="inlineStr">
         <is>
-          <t>-12.50</t>
+          <t>-10.33</t>
         </is>
       </c>
       <c r="M28" s="13" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O28" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="29" ht="15.75" customHeight="1" s="9">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2608,27 +2608,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H29" s="13" t="n">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="J29" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K29" s="13" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L29" s="13" t="inlineStr">
         <is>
-          <t>-12.50</t>
+          <t>-10.33</t>
         </is>
       </c>
       <c r="M29" s="13" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="O29" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="30" ht="15.75" customHeight="1" s="9">
       <c r="A30" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2686,27 +2686,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H30" s="13" t="n">
@@ -2717,17 +2717,17 @@
       </c>
       <c r="J30" s="13" t="inlineStr">
         <is>
-          <t>Миша</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K30" s="13" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L30" s="13" t="inlineStr">
         <is>
-          <t>-12.50</t>
+          <t>-10.33</t>
         </is>
       </c>
       <c r="M30" s="13" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="O30" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2754,7 +2754,7 @@
     <row r="31" ht="15.75" customHeight="1" s="9">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2764,27 +2764,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H31" s="13" t="n">
@@ -2795,17 +2795,17 @@
       </c>
       <c r="J31" s="13" t="inlineStr">
         <is>
-          <t>Тони</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K31" s="13" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L31" s="13" t="inlineStr">
         <is>
-          <t>-12.50</t>
+          <t>-10.33</t>
         </is>
       </c>
       <c r="M31" s="13" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="O31" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2832,44 +2832,44 @@
     <row r="32" ht="15.75" customHeight="1" s="9">
       <c r="A32" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:33</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Goldenbull</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Es13</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H32" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J32" s="13" t="inlineStr">
         <is>
@@ -2878,17 +2878,17 @@
       </c>
       <c r="K32" s="13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L32" s="13" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>-10.33</t>
         </is>
       </c>
       <c r="M32" s="13" t="inlineStr">
         <is>
-          <t>172.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N32" s="13" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O32" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2910,63 +2910,63 @@
     <row r="33" ht="15.75" customHeight="1" s="9">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:33</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Goldenbull</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Es13</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H33" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J33" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K33" s="13" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="L33" s="13" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>43.40</t>
         </is>
       </c>
       <c r="M33" s="13" t="inlineStr">
         <is>
-          <t>57.33</t>
+          <t>105.40</t>
         </is>
       </c>
       <c r="N33" s="13" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="O33" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="34" ht="15.75" customHeight="1" s="9">
       <c r="A34" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:33</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2998,53 +2998,53 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Goldenbull</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Es13</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H34" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J34" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K34" s="13" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L34" s="13" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M34" s="13" t="inlineStr">
         <is>
-          <t>57.33</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="N34" s="13" t="inlineStr">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="O34" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3066,7 +3066,7 @@
     <row r="35" ht="15.75" customHeight="1" s="9">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:33</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3076,53 +3076,53 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Goldenbull</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Es13</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H35" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J35" s="13" t="inlineStr">
         <is>
-          <t>Тони</t>
+          <t>Свят</t>
         </is>
       </c>
       <c r="K35" s="13" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L35" s="13" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M35" s="13" t="inlineStr">
         <is>
-          <t>57.33</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="N35" s="13" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="O35" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3144,63 +3144,63 @@
     <row r="36" ht="15.75" customHeight="1" s="9">
       <c r="A36" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:29:56</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Основной</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Speedybet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Es10</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H36" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" s="13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J36" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K36" s="13" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L36" s="13" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M36" s="13" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="N36" s="13" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O36" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3222,7 +3222,7 @@
     <row r="37" ht="15.75" customHeight="1" s="9">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:29:56</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3232,53 +3232,53 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Speedybet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Es10</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H37" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I37" s="13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J37" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K37" s="13" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L37" s="13" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M37" s="13" t="inlineStr">
         <is>
-          <t>46.67</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="N37" s="13" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="O37" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3300,7 +3300,7 @@
     <row r="38" ht="15.75" customHeight="1" s="9">
       <c r="A38" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:29:56</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3310,53 +3310,53 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Speedybet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Es10</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H38" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J38" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K38" s="13" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L38" s="13" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M38" s="13" t="inlineStr">
         <is>
-          <t>46.67</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="N38" s="13" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="O38" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="39" ht="15.75" customHeight="1" s="9">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 10:29:56</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3388,53 +3388,53 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Speedybet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Es10</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="H39" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J39" s="13" t="inlineStr">
         <is>
-          <t>Тони</t>
+          <t>Зон</t>
         </is>
       </c>
       <c r="K39" s="13" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="L39" s="13" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M39" s="13" t="inlineStr">
         <is>
-          <t>46.67</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="N39" s="13" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="O39" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="40" ht="15.75" customHeight="1" s="9">
       <c r="A40" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 15:54:46</t>
+          <t>29.09.2025 16:44:39</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3466,34 +3466,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>VTV Binh Dien Long An (W) - Noed Chameleons (W)</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J40" s="13" t="inlineStr">
         <is>
@@ -3502,17 +3498,17 @@
       </c>
       <c r="K40" s="13" t="inlineStr">
         <is>
-          <t>83.33</t>
+          <t>51.29</t>
         </is>
       </c>
       <c r="L40" s="13" t="inlineStr">
         <is>
-          <t>-83.33</t>
+          <t>30.77</t>
         </is>
       </c>
       <c r="M40" s="13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.06</t>
         </is>
       </c>
       <c r="N40" s="13" t="inlineStr">
@@ -3534,7 +3530,7 @@
     <row r="41" ht="15.75" customHeight="1" s="9">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>29.09.2025 17:46:46</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3559,38 +3555,34 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" s="13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J41" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K41" s="13" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>51.29</t>
         </is>
       </c>
       <c r="L41" s="13" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>71.81</t>
         </is>
       </c>
       <c r="M41" s="13" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>123.10</t>
         </is>
       </c>
       <c r="N41" s="13" t="inlineStr">
@@ -3612,7 +3604,7 @@
     <row r="42" ht="15.75" customHeight="1" s="9">
       <c r="A42" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>29.09.2025 17:46:46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3637,38 +3629,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J42" s="13" t="inlineStr">
         <is>
-          <t>Зон</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K42" s="13" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L42" s="13" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="M42" s="13" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="N42" s="13" t="inlineStr">
@@ -3690,7 +3678,7 @@
     <row r="43" ht="15.75" customHeight="1" s="9">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>29.09.2025 17:46:46</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3715,19 +3703,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J43" s="13" t="inlineStr">
         <is>
@@ -3736,17 +3720,17 @@
       </c>
       <c r="K43" s="13" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L43" s="13" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="M43" s="13" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="N43" s="13" t="inlineStr">
@@ -3768,7 +3752,7 @@
     <row r="44" ht="15.75" customHeight="1" s="9">
       <c r="A44" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>29.09.2025 17:46:46</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3793,38 +3777,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I44" s="13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J44" s="13" t="inlineStr">
         <is>
-          <t>Миша</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K44" s="13" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L44" s="13" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="M44" s="13" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="N44" s="13" t="inlineStr">
@@ -3846,12 +3826,12 @@
     <row r="45" ht="15.75" customHeight="1" s="9">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>29.09.2025 18:06:02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Подотчет</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3871,38 +3851,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J45" s="13" t="inlineStr">
         <is>
-          <t>Тони</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K45" s="13" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>51.29</t>
         </is>
       </c>
       <c r="L45" s="13" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>71.81</t>
         </is>
       </c>
       <c r="M45" s="13" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>123.10</t>
         </is>
       </c>
       <c r="N45" s="13" t="inlineStr">
@@ -3924,63 +3900,59 @@
     <row r="46" ht="15.75" customHeight="1" s="9">
       <c r="A46" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:49:37</t>
+          <t>29.09.2025 18:06:02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="13" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="J46" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K46" s="13" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L46" s="13" t="inlineStr">
         <is>
-          <t>-25.00</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="M46" s="13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="N46" s="13" t="inlineStr">
@@ -3990,7 +3962,7 @@
       </c>
       <c r="O46" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4002,63 +3974,59 @@
     <row r="47" ht="15.75" customHeight="1" s="9">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:49:44</t>
+          <t>29.09.2025 18:06:02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I47" s="13" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="J47" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K47" s="13" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L47" s="13" t="inlineStr">
         <is>
-          <t>-25.00</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="M47" s="13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="N47" s="13" t="inlineStr">
@@ -4068,7 +4036,7 @@
       </c>
       <c r="O47" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4080,63 +4048,59 @@
     <row r="48" ht="15.75" customHeight="1" s="9">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:49:51</t>
+          <t>29.09.2025 18:06:02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="13" t="n">
-        <v>1.81</v>
+        <v>2.4</v>
       </c>
       <c r="J48" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K48" s="13" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L48" s="13" t="inlineStr">
         <is>
-          <t>-25.00</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="M48" s="13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="N48" s="13" t="inlineStr">
@@ -4146,7 +4110,7 @@
       </c>
       <c r="O48" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4158,17 +4122,17 @@
     <row r="49" ht="15.75" customHeight="1" s="9">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:50:02</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4186,20 +4150,16 @@
           <t>Es8</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49" s="13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J49" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K49" s="13" t="inlineStr">
@@ -4224,7 +4184,7 @@
       </c>
       <c r="O49" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4236,17 +4196,17 @@
     <row r="50" ht="15.75" customHeight="1" s="9">
       <c r="A50" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:50:15</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4264,30 +4224,26 @@
           <t>Es8</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="13" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="J50" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K50" s="13" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="L50" s="13" t="inlineStr">
         <is>
-          <t>-25.00</t>
+          <t>-6.25</t>
         </is>
       </c>
       <c r="M50" s="13" t="inlineStr">
@@ -4302,7 +4258,7 @@
       </c>
       <c r="O50" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4314,17 +4270,17 @@
     <row r="51" ht="15.75" customHeight="1" s="9">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:50:32</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4334,38 +4290,34 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Es8</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="13" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="J51" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K51" s="13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="L51" s="13" t="inlineStr">
         <is>
-          <t>-100.00</t>
+          <t>-6.25</t>
         </is>
       </c>
       <c r="M51" s="13" t="inlineStr">
@@ -4380,7 +4332,7 @@
       </c>
       <c r="O51" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4392,58 +4344,54 @@
     <row r="52" ht="15.75" customHeight="1" s="9">
       <c r="A52" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:54:20</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Словакия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Es8</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I52" s="13" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="J52" s="13" t="inlineStr">
         <is>
-          <t>Свят</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K52" s="13" t="inlineStr">
         <is>
-          <t>83.30</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="L52" s="13" t="inlineStr">
         <is>
-          <t>-83.30</t>
+          <t>-6.25</t>
         </is>
       </c>
       <c r="M52" s="13" t="inlineStr">
@@ -4458,7 +4406,7 @@
       </c>
       <c r="O52" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4470,58 +4418,54 @@
     <row r="53" ht="15.75" customHeight="1" s="9">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 10:55:31</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bet 2.0</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hepsibahis</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Thanh Pho Ho Chi Minh v Nxled Chameleons</t>
-        </is>
-      </c>
+          <t>Es8</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="J53" s="13" t="inlineStr">
         <is>
-          <t>Свят</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K53" s="13" t="inlineStr">
         <is>
-          <t>51.21</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="L53" s="13" t="inlineStr">
         <is>
-          <t>-51.21</t>
+          <t>-6.25</t>
         </is>
       </c>
       <c r="M53" s="13" t="inlineStr">
@@ -4536,7 +4480,7 @@
       </c>
       <c r="O53" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4548,7 +4492,7 @@
     <row r="54" ht="15.75" customHeight="1" s="9">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4558,53 +4502,49 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" s="13" t="n">
         <v>4</v>
       </c>
       <c r="I54" s="13" t="n">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="J54" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K54" s="13" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="L54" s="13" t="inlineStr">
         <is>
-          <t>64.50</t>
+          <t>-50.00</t>
         </is>
       </c>
       <c r="M54" s="13" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N54" s="13" t="inlineStr">
@@ -4614,7 +4554,7 @@
       </c>
       <c r="O54" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4626,7 +4566,7 @@
     <row r="55" ht="15.75" customHeight="1" s="9">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4636,53 +4576,49 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I55" s="13" t="n">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="J55" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K55" s="13" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L55" s="13" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>-12.50</t>
         </is>
       </c>
       <c r="M55" s="13" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N55" s="13" t="inlineStr">
@@ -4692,7 +4628,7 @@
       </c>
       <c r="O55" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4704,7 +4640,7 @@
     <row r="56" ht="15.75" customHeight="1" s="9">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4714,53 +4650,49 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I56" s="13" t="n">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="J56" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K56" s="13" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L56" s="13" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>-12.50</t>
         </is>
       </c>
       <c r="M56" s="13" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N56" s="13" t="inlineStr">
@@ -4770,7 +4702,7 @@
       </c>
       <c r="O56" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4782,7 +4714,7 @@
     <row r="57" ht="15.75" customHeight="1" s="9">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4792,53 +4724,49 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I57" s="13" t="n">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="J57" s="13" t="inlineStr">
         <is>
-          <t>Свят</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K57" s="13" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L57" s="13" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>-12.50</t>
         </is>
       </c>
       <c r="M57" s="13" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N57" s="13" t="inlineStr">
@@ -4848,7 +4776,7 @@
       </c>
       <c r="O57" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4860,7 +4788,7 @@
     <row r="58" ht="15.75" customHeight="1" s="9">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4870,53 +4798,49 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="13" t="n">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="J58" s="13" t="inlineStr">
         <is>
-          <t>Наташа</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K58" s="13" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L58" s="13" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>-12.50</t>
         </is>
       </c>
       <c r="M58" s="13" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N58" s="13" t="inlineStr">
@@ -4926,7 +4850,7 @@
       </c>
       <c r="O58" s="13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4938,7 +4862,7 @@
     <row r="59" ht="15.75" customHeight="1" s="9">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4958,28 +4882,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" s="13" t="n">
         <v>4</v>
       </c>
       <c r="I59" s="13" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="J59" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K59" s="13" t="inlineStr">
@@ -5016,7 +4936,7 @@
     <row r="60" ht="15.75" customHeight="1" s="9">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5036,28 +4956,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I60" s="13" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="J60" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Маск</t>
         </is>
       </c>
       <c r="K60" s="13" t="inlineStr">
@@ -5094,7 +5010,7 @@
     <row r="61" ht="15.75" customHeight="1" s="9">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5114,28 +5030,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="J61" s="13" t="inlineStr">
         <is>
-          <t>Маск</t>
+          <t>Тони</t>
         </is>
       </c>
       <c r="K61" s="13" t="inlineStr">
@@ -5172,7 +5084,7 @@
     <row r="62" ht="15.75" customHeight="1" s="9">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5192,28 +5104,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I62" s="13" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="J62" s="13" t="inlineStr">
         <is>
-          <t>Наташа</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K62" s="13" t="inlineStr">
@@ -5250,7 +5158,7 @@
     <row r="63" ht="15.75" customHeight="1" s="9">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5270,28 +5178,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I63" s="13" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="J63" s="13" t="inlineStr">
         <is>
-          <t>Свят</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K63" s="13" t="inlineStr">
@@ -5328,63 +5232,59 @@
     <row r="64" ht="15.75" customHeight="1" s="9">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:07:28</t>
+          <t>29.09.2025 22:36:21</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Основной</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="13" t="n">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="J64" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K64" s="13" t="inlineStr">
         <is>
-          <t>24.19</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="L64" s="13" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>-100.00</t>
         </is>
       </c>
       <c r="M64" s="13" t="inlineStr">
         <is>
-          <t>61.68</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N64" s="13" t="inlineStr">
@@ -5406,63 +5306,59 @@
     <row r="65" ht="15.75" customHeight="1" s="9">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:07:40</t>
+          <t>29.09.2025 22:36:21</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I65" s="13" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="J65" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Ламер</t>
         </is>
       </c>
       <c r="K65" s="13" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="L65" s="13" t="inlineStr">
         <is>
-          <t>37.50</t>
+          <t>-50.00</t>
         </is>
       </c>
       <c r="M65" s="13" t="inlineStr">
         <is>
-          <t>62.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N65" s="13" t="inlineStr">
@@ -5484,63 +5380,59 @@
     <row r="66" ht="15.75" customHeight="1" s="9">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>24.09.2025 16:07:51</t>
+          <t>29.09.2025 22:36:21</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Обычный</t>
+          <t>Подотчет</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" s="13" t="n">
         <v>1</v>
       </c>
       <c r="I66" s="13" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="J66" s="13" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Миша</t>
         </is>
       </c>
       <c r="K66" s="13" t="inlineStr">
         <is>
-          <t>23.43</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="L66" s="13" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>-50.00</t>
         </is>
       </c>
       <c r="M66" s="13" t="inlineStr">
         <is>
-          <t>60.92</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N66" s="13" t="inlineStr">
@@ -5560,4138 +5452,587 @@
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1" s="9">
-      <c r="A67" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:07:59</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H67" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J67" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K67" s="13" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="L67" s="13" t="inlineStr">
-        <is>
-          <t>37.50</t>
-        </is>
-      </c>
-      <c r="M67" s="13" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="N67" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O67" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A67" s="12" t="n"/>
+      <c r="H67" s="13" t="n"/>
+      <c r="I67" s="13" t="n"/>
+      <c r="J67" s="13" t="n"/>
+      <c r="K67" s="13" t="n"/>
+      <c r="L67" s="13" t="n"/>
+      <c r="M67" s="13" t="n"/>
+      <c r="N67" s="13" t="n"/>
+      <c r="O67" s="13" t="n"/>
     </row>
     <row r="68" ht="15.75" customHeight="1" s="9">
-      <c r="A68" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Основной</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H68" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I68" s="13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J68" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K68" s="13" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="L68" s="13" t="inlineStr">
-        <is>
-          <t>120.00</t>
-        </is>
-      </c>
-      <c r="M68" s="13" t="inlineStr">
-        <is>
-          <t>220.00</t>
-        </is>
-      </c>
-      <c r="N68" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O68" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A68" s="12" t="n"/>
+      <c r="H68" s="13" t="n"/>
+      <c r="I68" s="13" t="n"/>
+      <c r="J68" s="13" t="n"/>
+      <c r="K68" s="13" t="n"/>
+      <c r="L68" s="13" t="n"/>
+      <c r="M68" s="13" t="n"/>
+      <c r="N68" s="13" t="n"/>
+      <c r="O68" s="13" t="n"/>
     </row>
     <row r="69" ht="15.75" customHeight="1" s="9">
-      <c r="A69" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H69" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J69" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K69" s="13" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L69" s="13" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="M69" s="13" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="N69" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O69" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A69" s="12" t="n"/>
+      <c r="H69" s="13" t="n"/>
+      <c r="I69" s="13" t="n"/>
+      <c r="J69" s="13" t="n"/>
+      <c r="K69" s="13" t="n"/>
+      <c r="L69" s="13" t="n"/>
+      <c r="M69" s="13" t="n"/>
+      <c r="N69" s="13" t="n"/>
+      <c r="O69" s="13" t="n"/>
     </row>
     <row r="70" ht="15.75" customHeight="1" s="9">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H70" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J70" s="13" t="inlineStr">
-        <is>
-          <t>Маск</t>
-        </is>
-      </c>
-      <c r="K70" s="13" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L70" s="13" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="M70" s="13" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="N70" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O70" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A70" s="12" t="n"/>
+      <c r="H70" s="13" t="n"/>
+      <c r="I70" s="13" t="n"/>
+      <c r="J70" s="13" t="n"/>
+      <c r="K70" s="13" t="n"/>
+      <c r="L70" s="13" t="n"/>
+      <c r="M70" s="13" t="n"/>
+      <c r="N70" s="13" t="n"/>
+      <c r="O70" s="13" t="n"/>
     </row>
     <row r="71" ht="15.75" customHeight="1" s="9">
-      <c r="A71" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J71" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K71" s="13" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L71" s="13" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="M71" s="13" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="N71" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O71" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A71" s="12" t="n"/>
+      <c r="H71" s="13" t="n"/>
+      <c r="I71" s="13" t="n"/>
+      <c r="J71" s="13" t="n"/>
+      <c r="K71" s="13" t="n"/>
+      <c r="L71" s="13" t="n"/>
+      <c r="M71" s="13" t="n"/>
+      <c r="N71" s="13" t="n"/>
+      <c r="O71" s="13" t="n"/>
     </row>
     <row r="72" ht="15.75" customHeight="1" s="9">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H72" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" s="13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J72" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K72" s="13" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L72" s="13" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="M72" s="13" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="N72" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O72" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A72" s="12" t="n"/>
+      <c r="H72" s="13" t="n"/>
+      <c r="I72" s="13" t="n"/>
+      <c r="J72" s="13" t="n"/>
+      <c r="K72" s="13" t="n"/>
+      <c r="L72" s="13" t="n"/>
+      <c r="M72" s="13" t="n"/>
+      <c r="N72" s="13" t="n"/>
+      <c r="O72" s="13" t="n"/>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="9">
-      <c r="A73" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:09:25</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H73" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" s="13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J73" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K73" s="13" t="inlineStr">
-        <is>
-          <t>56.45</t>
-        </is>
-      </c>
-      <c r="L73" s="13" t="inlineStr">
-        <is>
-          <t>87.50</t>
-        </is>
-      </c>
-      <c r="M73" s="13" t="inlineStr">
-        <is>
-          <t>143.95</t>
-        </is>
-      </c>
-      <c r="N73" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O73" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A73" s="12" t="n"/>
+      <c r="H73" s="13" t="n"/>
+      <c r="I73" s="13" t="n"/>
+      <c r="J73" s="13" t="n"/>
+      <c r="K73" s="13" t="n"/>
+      <c r="L73" s="13" t="n"/>
+      <c r="M73" s="13" t="n"/>
+      <c r="N73" s="13" t="n"/>
+      <c r="O73" s="13" t="n"/>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="9">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:09:55</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="H74" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J74" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K74" s="13" t="inlineStr">
-        <is>
-          <t>58.33</t>
-        </is>
-      </c>
-      <c r="L74" s="13" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="M74" s="13" t="inlineStr">
-        <is>
-          <t>145.82</t>
-        </is>
-      </c>
-      <c r="N74" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O74" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A74" s="12" t="n"/>
+      <c r="H74" s="13" t="n"/>
+      <c r="I74" s="13" t="n"/>
+      <c r="J74" s="13" t="n"/>
+      <c r="K74" s="13" t="n"/>
+      <c r="L74" s="13" t="n"/>
+      <c r="M74" s="13" t="n"/>
+      <c r="N74" s="13" t="n"/>
+      <c r="O74" s="13" t="n"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="9">
-      <c r="A75" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Основной</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="H75" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I75" s="13" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J75" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K75" s="13" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="L75" s="13" t="inlineStr">
-        <is>
-          <t>-50.00</t>
-        </is>
-      </c>
-      <c r="M75" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N75" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O75" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A75" s="12" t="n"/>
+      <c r="H75" s="13" t="n"/>
+      <c r="I75" s="13" t="n"/>
+      <c r="J75" s="13" t="n"/>
+      <c r="K75" s="13" t="n"/>
+      <c r="L75" s="13" t="n"/>
+      <c r="M75" s="13" t="n"/>
+      <c r="N75" s="13" t="n"/>
+      <c r="O75" s="13" t="n"/>
     </row>
     <row r="76" ht="15.75" customHeight="1" s="9">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="H76" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" s="13" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J76" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K76" s="13" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L76" s="13" t="inlineStr">
-        <is>
-          <t>-12.50</t>
-        </is>
-      </c>
-      <c r="M76" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N76" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O76" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A76" s="12" t="n"/>
+      <c r="H76" s="13" t="n"/>
+      <c r="I76" s="13" t="n"/>
+      <c r="J76" s="13" t="n"/>
+      <c r="K76" s="13" t="n"/>
+      <c r="L76" s="13" t="n"/>
+      <c r="M76" s="13" t="n"/>
+      <c r="N76" s="13" t="n"/>
+      <c r="O76" s="13" t="n"/>
     </row>
     <row r="77" ht="15.75" customHeight="1" s="9">
-      <c r="A77" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="H77" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" s="13" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J77" s="13" t="inlineStr">
-        <is>
-          <t>Маск</t>
-        </is>
-      </c>
-      <c r="K77" s="13" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L77" s="13" t="inlineStr">
-        <is>
-          <t>-12.50</t>
-        </is>
-      </c>
-      <c r="M77" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N77" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O77" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A77" s="12" t="n"/>
+      <c r="H77" s="13" t="n"/>
+      <c r="I77" s="13" t="n"/>
+      <c r="J77" s="13" t="n"/>
+      <c r="K77" s="13" t="n"/>
+      <c r="L77" s="13" t="n"/>
+      <c r="M77" s="13" t="n"/>
+      <c r="N77" s="13" t="n"/>
+      <c r="O77" s="13" t="n"/>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="9">
-      <c r="A78" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="H78" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="13" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J78" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K78" s="13" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L78" s="13" t="inlineStr">
-        <is>
-          <t>-12.50</t>
-        </is>
-      </c>
-      <c r="M78" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N78" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O78" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A78" s="12" t="n"/>
+      <c r="H78" s="13" t="n"/>
+      <c r="I78" s="13" t="n"/>
+      <c r="J78" s="13" t="n"/>
+      <c r="K78" s="13" t="n"/>
+      <c r="L78" s="13" t="n"/>
+      <c r="M78" s="13" t="n"/>
+      <c r="N78" s="13" t="n"/>
+      <c r="O78" s="13" t="n"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="9">
-      <c r="A79" s="12" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="H79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="13" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J79" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K79" s="13" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L79" s="13" t="inlineStr">
-        <is>
-          <t>-12.50</t>
-        </is>
-      </c>
-      <c r="M79" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N79" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O79" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A79" s="12" t="n"/>
+      <c r="H79" s="13" t="n"/>
+      <c r="I79" s="13" t="n"/>
+      <c r="J79" s="13" t="n"/>
+      <c r="K79" s="13" t="n"/>
+      <c r="L79" s="13" t="n"/>
+      <c r="M79" s="13" t="n"/>
+      <c r="N79" s="13" t="n"/>
+      <c r="O79" s="13" t="n"/>
     </row>
     <row r="80" ht="15.75" customHeight="1" s="9">
-      <c r="A80" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:18:40</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="H80" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K80" s="13" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="L80" s="13" t="inlineStr">
-        <is>
-          <t>69.96</t>
-        </is>
-      </c>
-      <c r="M80" s="13" t="inlineStr">
-        <is>
-          <t>81.62</t>
-        </is>
-      </c>
-      <c r="N80" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O80" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A80" s="12" t="n"/>
+      <c r="H80" s="13" t="n"/>
+      <c r="I80" s="13" t="n"/>
+      <c r="J80" s="13" t="n"/>
+      <c r="K80" s="13" t="n"/>
+      <c r="L80" s="13" t="n"/>
+      <c r="M80" s="13" t="n"/>
+      <c r="N80" s="13" t="n"/>
+      <c r="O80" s="13" t="n"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="9">
-      <c r="A81" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:19:08</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="H81" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K81" s="13" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="L81" s="13" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="M81" s="13" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="N81" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O81" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A81" s="12" t="n"/>
+      <c r="H81" s="13" t="n"/>
+      <c r="I81" s="13" t="n"/>
+      <c r="J81" s="13" t="n"/>
+      <c r="K81" s="13" t="n"/>
+      <c r="L81" s="13" t="n"/>
+      <c r="M81" s="13" t="n"/>
+      <c r="N81" s="13" t="n"/>
+      <c r="O81" s="13" t="n"/>
     </row>
     <row r="82" ht="15.75" customHeight="1" s="9">
-      <c r="A82" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:20:15</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="H82" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K82" s="13" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="L82" s="13" t="inlineStr">
-        <is>
-          <t>250.00</t>
-        </is>
-      </c>
-      <c r="M82" s="13" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="N82" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O82" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A82" s="12" t="n"/>
+      <c r="H82" s="13" t="n"/>
+      <c r="I82" s="13" t="n"/>
+      <c r="J82" s="13" t="n"/>
+      <c r="K82" s="13" t="n"/>
+      <c r="L82" s="13" t="n"/>
+      <c r="M82" s="13" t="n"/>
+      <c r="N82" s="13" t="n"/>
+      <c r="O82" s="13" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1" s="9">
-      <c r="A83" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:20:33</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="H83" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J83" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K83" s="13" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="L83" s="13" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="M83" s="13" t="inlineStr">
-        <is>
-          <t>350.00</t>
-        </is>
-      </c>
-      <c r="N83" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O83" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A83" s="12" t="n"/>
+      <c r="H83" s="13" t="n"/>
+      <c r="I83" s="13" t="n"/>
+      <c r="J83" s="13" t="n"/>
+      <c r="K83" s="13" t="n"/>
+      <c r="L83" s="13" t="n"/>
+      <c r="M83" s="13" t="n"/>
+      <c r="N83" s="13" t="n"/>
+      <c r="O83" s="13" t="n"/>
     </row>
     <row r="84" ht="15.75" customHeight="1" s="9">
-      <c r="A84" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:38:47</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Soccer XI vs Mumbai Strikers</t>
-        </is>
-      </c>
-      <c r="H84" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" s="13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J84" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K84" s="13" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="L84" s="13" t="inlineStr">
-        <is>
-          <t>104.72</t>
-        </is>
-      </c>
-      <c r="M84" s="13" t="inlineStr">
-        <is>
-          <t>199.92</t>
-        </is>
-      </c>
-      <c r="N84" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O84" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A84" s="12" t="n"/>
+      <c r="H84" s="13" t="n"/>
+      <c r="I84" s="13" t="n"/>
+      <c r="J84" s="13" t="n"/>
+      <c r="K84" s="13" t="n"/>
+      <c r="L84" s="13" t="n"/>
+      <c r="M84" s="13" t="n"/>
+      <c r="N84" s="13" t="n"/>
+      <c r="O84" s="13" t="n"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="9">
-      <c r="A85" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 12:51:24</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>United Stars FC vs Students Union FC</t>
-        </is>
-      </c>
-      <c r="H85" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" s="13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J85" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K85" s="13" t="inlineStr">
-        <is>
-          <t>17.30</t>
-        </is>
-      </c>
-      <c r="L85" s="13" t="inlineStr">
-        <is>
-          <t>181.65</t>
-        </is>
-      </c>
-      <c r="M85" s="13" t="inlineStr">
-        <is>
-          <t>198.95</t>
-        </is>
-      </c>
-      <c r="N85" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O85" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A85" s="12" t="n"/>
+      <c r="H85" s="13" t="n"/>
+      <c r="I85" s="13" t="n"/>
+      <c r="J85" s="13" t="n"/>
+      <c r="K85" s="13" t="n"/>
+      <c r="L85" s="13" t="n"/>
+      <c r="M85" s="13" t="n"/>
+      <c r="N85" s="13" t="n"/>
+      <c r="O85" s="13" t="n"/>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="9">
-      <c r="A86" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 12:51:39</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>United Stars FC vs Students Union FC</t>
-        </is>
-      </c>
-      <c r="H86" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" s="13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J86" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K86" s="13" t="inlineStr">
-        <is>
-          <t>53.30</t>
-        </is>
-      </c>
-      <c r="L86" s="13" t="inlineStr">
-        <is>
-          <t>146.57</t>
-        </is>
-      </c>
-      <c r="M86" s="13" t="inlineStr">
-        <is>
-          <t>199.88</t>
-        </is>
-      </c>
-      <c r="N86" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O86" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A86" s="12" t="n"/>
+      <c r="H86" s="13" t="n"/>
+      <c r="I86" s="13" t="n"/>
+      <c r="J86" s="13" t="n"/>
+      <c r="K86" s="13" t="n"/>
+      <c r="L86" s="13" t="n"/>
+      <c r="M86" s="13" t="n"/>
+      <c r="N86" s="13" t="n"/>
+      <c r="O86" s="13" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="9">
-      <c r="A87" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 19:37:34</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Основной</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Flamengo SE vs Independente Simao Dias SE</t>
-        </is>
-      </c>
-      <c r="H87" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" s="13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J87" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K87" s="13" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="L87" s="13" t="inlineStr">
-        <is>
-          <t>-27.00</t>
-        </is>
-      </c>
-      <c r="M87" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N87" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O87" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A87" s="12" t="n"/>
+      <c r="H87" s="13" t="n"/>
+      <c r="I87" s="13" t="n"/>
+      <c r="J87" s="13" t="n"/>
+      <c r="K87" s="13" t="n"/>
+      <c r="L87" s="13" t="n"/>
+      <c r="M87" s="13" t="n"/>
+      <c r="N87" s="13" t="n"/>
+      <c r="O87" s="13" t="n"/>
     </row>
     <row r="88" ht="15.75" customHeight="1" s="9">
-      <c r="A88" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 19:37:34</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Flamengo SE vs Independente Simao Dias SE</t>
-        </is>
-      </c>
-      <c r="H88" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" s="13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J88" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K88" s="13" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L88" s="13" t="inlineStr">
-        <is>
-          <t>-9.00</t>
-        </is>
-      </c>
-      <c r="M88" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N88" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O88" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A88" s="12" t="n"/>
+      <c r="H88" s="13" t="n"/>
+      <c r="I88" s="13" t="n"/>
+      <c r="J88" s="13" t="n"/>
+      <c r="K88" s="13" t="n"/>
+      <c r="L88" s="13" t="n"/>
+      <c r="M88" s="13" t="n"/>
+      <c r="N88" s="13" t="n"/>
+      <c r="O88" s="13" t="n"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="9">
-      <c r="A89" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 19:37:34</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Flamengo SE vs Independente Simao Dias SE</t>
-        </is>
-      </c>
-      <c r="H89" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" s="13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J89" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K89" s="13" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L89" s="13" t="inlineStr">
-        <is>
-          <t>-9.00</t>
-        </is>
-      </c>
-      <c r="M89" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N89" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O89" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A89" s="12" t="n"/>
+      <c r="H89" s="13" t="n"/>
+      <c r="I89" s="13" t="n"/>
+      <c r="J89" s="13" t="n"/>
+      <c r="K89" s="13" t="n"/>
+      <c r="L89" s="13" t="n"/>
+      <c r="M89" s="13" t="n"/>
+      <c r="N89" s="13" t="n"/>
+      <c r="O89" s="13" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="9">
-      <c r="A90" s="12" t="inlineStr">
-        <is>
-          <t>25.09.2025 19:37:34</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Flamengo SE vs Independente Simao Dias SE</t>
-        </is>
-      </c>
-      <c r="H90" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" s="13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J90" s="13" t="inlineStr">
-        <is>
-          <t>Маск</t>
-        </is>
-      </c>
-      <c r="K90" s="13" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L90" s="13" t="inlineStr">
-        <is>
-          <t>-9.00</t>
-        </is>
-      </c>
-      <c r="M90" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N90" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O90" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A90" s="12" t="n"/>
+      <c r="H90" s="13" t="n"/>
+      <c r="I90" s="13" t="n"/>
+      <c r="J90" s="13" t="n"/>
+      <c r="K90" s="13" t="n"/>
+      <c r="L90" s="13" t="n"/>
+      <c r="M90" s="13" t="n"/>
+      <c r="N90" s="13" t="n"/>
+      <c r="O90" s="13" t="n"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="9">
-      <c r="A91" s="12" t="inlineStr">
-        <is>
-          <t>26.09.2025 12:25:28</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Varmanya United FC - Yangon United</t>
-        </is>
-      </c>
-      <c r="H91" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K91" s="13" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="L91" s="13" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="M91" s="13" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="N91" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O91" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A91" s="12" t="n"/>
+      <c r="H91" s="13" t="n"/>
+      <c r="I91" s="13" t="n"/>
+      <c r="J91" s="13" t="n"/>
+      <c r="K91" s="13" t="n"/>
+      <c r="L91" s="13" t="n"/>
+      <c r="M91" s="13" t="n"/>
+      <c r="N91" s="13" t="n"/>
+      <c r="O91" s="13" t="n"/>
     </row>
     <row r="92" ht="15.75" customHeight="1" s="9">
-      <c r="A92" s="12" t="inlineStr">
-        <is>
-          <t>26.09.2025 13:13:30</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>SD Mlinse vs KMN Benedikt</t>
-        </is>
-      </c>
-      <c r="H92" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" s="13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J92" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K92" s="13" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="L92" s="13" t="inlineStr">
-        <is>
-          <t>102.75</t>
-        </is>
-      </c>
-      <c r="M92" s="13" t="inlineStr">
-        <is>
-          <t>201.55</t>
-        </is>
-      </c>
-      <c r="N92" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O92" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A92" s="12" t="n"/>
+      <c r="H92" s="13" t="n"/>
+      <c r="I92" s="13" t="n"/>
+      <c r="J92" s="13" t="n"/>
+      <c r="K92" s="13" t="n"/>
+      <c r="L92" s="13" t="n"/>
+      <c r="M92" s="13" t="n"/>
+      <c r="N92" s="13" t="n"/>
+      <c r="O92" s="13" t="n"/>
     </row>
     <row r="93" ht="15.75" customHeight="1" s="9">
-      <c r="A93" s="12" t="inlineStr">
-        <is>
-          <t>26.09.2025 17:38:53</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Основной</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>888sport</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Es9</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Flacara Moreni - Teleajenul Valeni de Munte</t>
-        </is>
-      </c>
-      <c r="H93" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" s="13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J93" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K93" s="13" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
-      <c r="L93" s="13" t="inlineStr">
-        <is>
-          <t>52.50</t>
-        </is>
-      </c>
-      <c r="M93" s="13" t="inlineStr">
-        <is>
-          <t>122.50</t>
-        </is>
-      </c>
-      <c r="N93" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O93" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A93" s="12" t="n"/>
+      <c r="H93" s="13" t="n"/>
+      <c r="I93" s="13" t="n"/>
+      <c r="J93" s="13" t="n"/>
+      <c r="K93" s="13" t="n"/>
+      <c r="L93" s="13" t="n"/>
+      <c r="M93" s="13" t="n"/>
+      <c r="N93" s="13" t="n"/>
+      <c r="O93" s="13" t="n"/>
     </row>
     <row r="94" ht="15.75" customHeight="1" s="9">
-      <c r="A94" s="12" t="inlineStr">
-        <is>
-          <t>26.09.2025 17:38:53</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>888sport</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Es9</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Flacara Moreni - Teleajenul Valeni de Munte</t>
-        </is>
-      </c>
-      <c r="H94" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" s="13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J94" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K94" s="13" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="L94" s="13" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="M94" s="13" t="inlineStr">
-        <is>
-          <t>40.83</t>
-        </is>
-      </c>
-      <c r="N94" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O94" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A94" s="12" t="n"/>
+      <c r="H94" s="13" t="n"/>
+      <c r="I94" s="13" t="n"/>
+      <c r="J94" s="13" t="n"/>
+      <c r="K94" s="13" t="n"/>
+      <c r="L94" s="13" t="n"/>
+      <c r="M94" s="13" t="n"/>
+      <c r="N94" s="13" t="n"/>
+      <c r="O94" s="13" t="n"/>
     </row>
     <row r="95" ht="15.75" customHeight="1" s="9">
-      <c r="A95" s="12" t="inlineStr">
-        <is>
-          <t>26.09.2025 17:38:53</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>888sport</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Es9</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Flacara Moreni - Teleajenul Valeni de Munte</t>
-        </is>
-      </c>
-      <c r="H95" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" s="13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J95" s="13" t="inlineStr">
-        <is>
-          <t>Тони</t>
-        </is>
-      </c>
-      <c r="K95" s="13" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="L95" s="13" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="M95" s="13" t="inlineStr">
-        <is>
-          <t>40.83</t>
-        </is>
-      </c>
-      <c r="N95" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O95" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A95" s="12" t="n"/>
+      <c r="H95" s="13" t="n"/>
+      <c r="I95" s="13" t="n"/>
+      <c r="J95" s="13" t="n"/>
+      <c r="K95" s="13" t="n"/>
+      <c r="L95" s="13" t="n"/>
+      <c r="M95" s="13" t="n"/>
+      <c r="N95" s="13" t="n"/>
+      <c r="O95" s="13" t="n"/>
     </row>
     <row r="96" ht="15.75" customHeight="1" s="9">
-      <c r="A96" s="12" t="inlineStr">
-        <is>
-          <t>26.09.2025 17:38:53</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>888sport</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Es9</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Flacara Moreni - Teleajenul Valeni de Munte</t>
-        </is>
-      </c>
-      <c r="H96" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" s="13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J96" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K96" s="13" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="L96" s="13" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="M96" s="13" t="inlineStr">
-        <is>
-          <t>40.83</t>
-        </is>
-      </c>
-      <c r="N96" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O96" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A96" s="12" t="n"/>
+      <c r="H96" s="13" t="n"/>
+      <c r="I96" s="13" t="n"/>
+      <c r="J96" s="13" t="n"/>
+      <c r="K96" s="13" t="n"/>
+      <c r="L96" s="13" t="n"/>
+      <c r="M96" s="13" t="n"/>
+      <c r="N96" s="13" t="n"/>
+      <c r="O96" s="13" t="n"/>
     </row>
     <row r="97" ht="15.75" customHeight="1" s="9">
-      <c r="A97" s="12" t="inlineStr">
-        <is>
-          <t>26.09.2025 19:42:19</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Sao Goncalo EC RJ - Duque de Caxias FC RJ</t>
-        </is>
-      </c>
-      <c r="H97" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" s="13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J97" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K97" s="13" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="L97" s="13" t="inlineStr">
-        <is>
-          <t>76.00</t>
-        </is>
-      </c>
-      <c r="M97" s="13" t="inlineStr">
-        <is>
-          <t>176.00</t>
-        </is>
-      </c>
-      <c r="N97" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O97" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A97" s="12" t="n"/>
+      <c r="H97" s="13" t="n"/>
+      <c r="I97" s="13" t="n"/>
+      <c r="J97" s="13" t="n"/>
+      <c r="K97" s="13" t="n"/>
+      <c r="L97" s="13" t="n"/>
+      <c r="M97" s="13" t="n"/>
+      <c r="N97" s="13" t="n"/>
+      <c r="O97" s="13" t="n"/>
     </row>
     <row r="98" ht="15.75" customHeight="1" s="9">
-      <c r="A98" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 08:47:03</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Sriwijaya FC vs Persiraja Banda Aceh</t>
-        </is>
-      </c>
-      <c r="H98" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" s="13" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="J98" s="13" t="inlineStr">
-        <is>
-          <t>Ламер</t>
-        </is>
-      </c>
-      <c r="K98" s="13" t="inlineStr">
-        <is>
-          <t>90.00</t>
-        </is>
-      </c>
-      <c r="L98" s="13" t="inlineStr">
-        <is>
-          <t>105.30</t>
-        </is>
-      </c>
-      <c r="M98" s="13" t="inlineStr">
-        <is>
-          <t>195.30</t>
-        </is>
-      </c>
-      <c r="N98" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O98" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A98" s="12" t="n"/>
+      <c r="H98" s="13" t="n"/>
+      <c r="I98" s="13" t="n"/>
+      <c r="J98" s="13" t="n"/>
+      <c r="K98" s="13" t="n"/>
+      <c r="L98" s="13" t="n"/>
+      <c r="M98" s="13" t="n"/>
+      <c r="N98" s="13" t="n"/>
+      <c r="O98" s="13" t="n"/>
     </row>
     <row r="99" ht="15.75" customHeight="1" s="9">
-      <c r="A99" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 09:07:47</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Sriwijaya FC vs Persiraja Banda Aceh</t>
-        </is>
-      </c>
-      <c r="H99" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" s="13" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J99" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K99" s="13" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="L99" s="13" t="inlineStr">
-        <is>
-          <t>105.99</t>
-        </is>
-      </c>
-      <c r="M99" s="13" t="inlineStr">
-        <is>
-          <t>199.79</t>
-        </is>
-      </c>
-      <c r="N99" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O99" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A99" s="12" t="n"/>
+      <c r="H99" s="13" t="n"/>
+      <c r="I99" s="13" t="n"/>
+      <c r="J99" s="13" t="n"/>
+      <c r="K99" s="13" t="n"/>
+      <c r="L99" s="13" t="n"/>
+      <c r="M99" s="13" t="n"/>
+      <c r="N99" s="13" t="n"/>
+      <c r="O99" s="13" t="n"/>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="9">
-      <c r="A100" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 10:01:05</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Quezon City Capitals - Basilan Steel</t>
-        </is>
-      </c>
-      <c r="H100" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" s="13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J100" s="13" t="inlineStr">
-        <is>
-          <t>Ламер</t>
-        </is>
-      </c>
-      <c r="K100" s="13" t="inlineStr">
-        <is>
-          <t>86.70</t>
-        </is>
-      </c>
-      <c r="L100" s="13" t="inlineStr">
-        <is>
-          <t>-86.70</t>
-        </is>
-      </c>
-      <c r="M100" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N100" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O100" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A100" s="12" t="n"/>
+      <c r="H100" s="13" t="n"/>
+      <c r="I100" s="13" t="n"/>
+      <c r="J100" s="13" t="n"/>
+      <c r="K100" s="13" t="n"/>
+      <c r="L100" s="13" t="n"/>
+      <c r="M100" s="13" t="n"/>
+      <c r="N100" s="13" t="n"/>
+      <c r="O100" s="13" t="n"/>
     </row>
     <row r="101" ht="15.75" customHeight="1" s="9">
-      <c r="A101" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 10:59:36</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="H101" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" s="13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J101" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K101" s="13" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="L101" s="13" t="inlineStr">
-        <is>
-          <t>-150.00</t>
-        </is>
-      </c>
-      <c r="M101" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N101" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O101" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A101" s="12" t="n"/>
+      <c r="H101" s="13" t="n"/>
+      <c r="I101" s="13" t="n"/>
+      <c r="J101" s="13" t="n"/>
+      <c r="K101" s="13" t="n"/>
+      <c r="L101" s="13" t="n"/>
+      <c r="M101" s="13" t="n"/>
+      <c r="N101" s="13" t="n"/>
+      <c r="O101" s="13" t="n"/>
     </row>
     <row r="102" ht="15.75" customHeight="1" s="9">
-      <c r="A102" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Основной</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="H102" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" s="13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J102" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K102" s="13" t="inlineStr">
-        <is>
-          <t>83.33</t>
-        </is>
-      </c>
-      <c r="L102" s="13" t="inlineStr">
-        <is>
-          <t>-83.33</t>
-        </is>
-      </c>
-      <c r="M102" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N102" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O102" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A102" s="12" t="n"/>
+      <c r="H102" s="13" t="n"/>
+      <c r="I102" s="13" t="n"/>
+      <c r="J102" s="13" t="n"/>
+      <c r="K102" s="13" t="n"/>
+      <c r="L102" s="13" t="n"/>
+      <c r="M102" s="13" t="n"/>
+      <c r="N102" s="13" t="n"/>
+      <c r="O102" s="13" t="n"/>
     </row>
     <row r="103" ht="15.75" customHeight="1" s="9">
-      <c r="A103" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="H103" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" s="13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J103" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K103" s="13" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="L103" s="13" t="inlineStr">
-        <is>
-          <t>-16.67</t>
-        </is>
-      </c>
-      <c r="M103" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N103" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O103" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A103" s="12" t="n"/>
+      <c r="H103" s="13" t="n"/>
+      <c r="I103" s="13" t="n"/>
+      <c r="J103" s="13" t="n"/>
+      <c r="K103" s="13" t="n"/>
+      <c r="L103" s="13" t="n"/>
+      <c r="M103" s="13" t="n"/>
+      <c r="N103" s="13" t="n"/>
+      <c r="O103" s="13" t="n"/>
     </row>
     <row r="104" ht="15.75" customHeight="1" s="9">
-      <c r="A104" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="H104" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" s="13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J104" s="13" t="inlineStr">
-        <is>
-          <t>Тони</t>
-        </is>
-      </c>
-      <c r="K104" s="13" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="L104" s="13" t="inlineStr">
-        <is>
-          <t>-16.67</t>
-        </is>
-      </c>
-      <c r="M104" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N104" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O104" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A104" s="12" t="n"/>
+      <c r="H104" s="13" t="n"/>
+      <c r="I104" s="13" t="n"/>
+      <c r="J104" s="13" t="n"/>
+      <c r="K104" s="13" t="n"/>
+      <c r="L104" s="13" t="n"/>
+      <c r="M104" s="13" t="n"/>
+      <c r="N104" s="13" t="n"/>
+      <c r="O104" s="13" t="n"/>
     </row>
     <row r="105" ht="15.75" customHeight="1" s="9">
-      <c r="A105" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="H105" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J105" s="13" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="K105" s="13" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="L105" s="13" t="inlineStr">
-        <is>
-          <t>-16.67</t>
-        </is>
-      </c>
-      <c r="M105" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N105" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O105" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A105" s="12" t="n"/>
+      <c r="H105" s="13" t="n"/>
+      <c r="I105" s="13" t="n"/>
+      <c r="J105" s="13" t="n"/>
+      <c r="K105" s="13" t="n"/>
+      <c r="L105" s="13" t="n"/>
+      <c r="M105" s="13" t="n"/>
+      <c r="N105" s="13" t="n"/>
+      <c r="O105" s="13" t="n"/>
     </row>
     <row r="106" ht="15.75" customHeight="1" s="9">
-      <c r="A106" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="H106" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J106" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K106" s="13" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="L106" s="13" t="inlineStr">
-        <is>
-          <t>-16.67</t>
-        </is>
-      </c>
-      <c r="M106" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N106" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O106" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A106" s="12" t="n"/>
+      <c r="H106" s="13" t="n"/>
+      <c r="I106" s="13" t="n"/>
+      <c r="J106" s="13" t="n"/>
+      <c r="K106" s="13" t="n"/>
+      <c r="L106" s="13" t="n"/>
+      <c r="M106" s="13" t="n"/>
+      <c r="N106" s="13" t="n"/>
+      <c r="O106" s="13" t="n"/>
     </row>
     <row r="107" ht="15.75" customHeight="1" s="9">
-      <c r="A107" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Подотчет</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="H107" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" s="13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J107" s="13" t="inlineStr">
-        <is>
-          <t>Ламер</t>
-        </is>
-      </c>
-      <c r="K107" s="13" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="L107" s="13" t="inlineStr">
-        <is>
-          <t>-16.67</t>
-        </is>
-      </c>
-      <c r="M107" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N107" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O107" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A107" s="12" t="n"/>
+      <c r="H107" s="13" t="n"/>
+      <c r="I107" s="13" t="n"/>
+      <c r="J107" s="13" t="n"/>
+      <c r="K107" s="13" t="n"/>
+      <c r="L107" s="13" t="n"/>
+      <c r="M107" s="13" t="n"/>
+      <c r="N107" s="13" t="n"/>
+      <c r="O107" s="13" t="n"/>
     </row>
     <row r="108" ht="15.75" customHeight="1" s="9">
-      <c r="A108" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:15:48</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="H108" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J108" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K108" s="13" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="L108" s="13" t="inlineStr">
-        <is>
-          <t>-43.71</t>
-        </is>
-      </c>
-      <c r="M108" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N108" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O108" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A108" s="12" t="n"/>
+      <c r="H108" s="13" t="n"/>
+      <c r="I108" s="13" t="n"/>
+      <c r="J108" s="13" t="n"/>
+      <c r="K108" s="13" t="n"/>
+      <c r="L108" s="13" t="n"/>
+      <c r="M108" s="13" t="n"/>
+      <c r="N108" s="13" t="n"/>
+      <c r="O108" s="13" t="n"/>
     </row>
     <row r="109" ht="15.75" customHeight="1" s="9">
-      <c r="A109" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:15:58</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="H109" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" s="13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J109" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K109" s="13" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="L109" s="13" t="inlineStr">
-        <is>
-          <t>-43.71</t>
-        </is>
-      </c>
-      <c r="M109" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N109" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O109" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A109" s="12" t="n"/>
+      <c r="H109" s="13" t="n"/>
+      <c r="I109" s="13" t="n"/>
+      <c r="J109" s="13" t="n"/>
+      <c r="K109" s="13" t="n"/>
+      <c r="L109" s="13" t="n"/>
+      <c r="M109" s="13" t="n"/>
+      <c r="N109" s="13" t="n"/>
+      <c r="O109" s="13" t="n"/>
     </row>
     <row r="110" ht="15.75" customHeight="1" s="9">
-      <c r="A110" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:16:22</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="H110" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J110" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K110" s="13" t="inlineStr">
-        <is>
-          <t>40.69</t>
-        </is>
-      </c>
-      <c r="L110" s="13" t="inlineStr">
-        <is>
-          <t>-40.69</t>
-        </is>
-      </c>
-      <c r="M110" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N110" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O110" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A110" s="12" t="n"/>
+      <c r="H110" s="13" t="n"/>
+      <c r="I110" s="13" t="n"/>
+      <c r="J110" s="13" t="n"/>
+      <c r="K110" s="13" t="n"/>
+      <c r="L110" s="13" t="n"/>
+      <c r="M110" s="13" t="n"/>
+      <c r="N110" s="13" t="n"/>
+      <c r="O110" s="13" t="n"/>
     </row>
     <row r="111" ht="15.75" customHeight="1" s="9">
-      <c r="A111" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:16:35</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="H111" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J111" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K111" s="13" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="L111" s="13" t="inlineStr">
-        <is>
-          <t>-30.00</t>
-        </is>
-      </c>
-      <c r="M111" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N111" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O111" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A111" s="12" t="n"/>
+      <c r="H111" s="13" t="n"/>
+      <c r="I111" s="13" t="n"/>
+      <c r="J111" s="13" t="n"/>
+      <c r="K111" s="13" t="n"/>
+      <c r="L111" s="13" t="n"/>
+      <c r="M111" s="13" t="n"/>
+      <c r="N111" s="13" t="n"/>
+      <c r="O111" s="13" t="n"/>
     </row>
     <row r="112" ht="15.75" customHeight="1" s="9">
-      <c r="A112" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:17:34</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="H112" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" s="13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J112" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K112" s="13" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="L112" s="13" t="inlineStr">
-        <is>
-          <t>82.50</t>
-        </is>
-      </c>
-      <c r="M112" s="13" t="inlineStr">
-        <is>
-          <t>157.50</t>
-        </is>
-      </c>
-      <c r="N112" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O112" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A112" s="12" t="n"/>
+      <c r="H112" s="13" t="n"/>
+      <c r="I112" s="13" t="n"/>
+      <c r="J112" s="13" t="n"/>
+      <c r="K112" s="13" t="n"/>
+      <c r="L112" s="13" t="n"/>
+      <c r="M112" s="13" t="n"/>
+      <c r="N112" s="13" t="n"/>
+      <c r="O112" s="13" t="n"/>
     </row>
     <row r="113" ht="15.75" customHeight="1" s="9">
-      <c r="A113" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:17:49</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="H113" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" s="13" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J113" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K113" s="13" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="L113" s="13" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="M113" s="13" t="inlineStr">
-        <is>
-          <t>167.25</t>
-        </is>
-      </c>
-      <c r="N113" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O113" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A113" s="12" t="n"/>
+      <c r="H113" s="13" t="n"/>
+      <c r="I113" s="13" t="n"/>
+      <c r="J113" s="13" t="n"/>
+      <c r="K113" s="13" t="n"/>
+      <c r="L113" s="13" t="n"/>
+      <c r="M113" s="13" t="n"/>
+      <c r="N113" s="13" t="n"/>
+      <c r="O113" s="13" t="n"/>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="9">
-      <c r="A114" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:18:24</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Goldenbull</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Es13</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="H114" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" s="13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J114" s="13" t="inlineStr">
-        <is>
-          <t>Свят</t>
-        </is>
-      </c>
-      <c r="K114" s="13" t="inlineStr">
-        <is>
-          <t>64.65</t>
-        </is>
-      </c>
-      <c r="L114" s="13" t="inlineStr">
-        <is>
-          <t>74.99</t>
-        </is>
-      </c>
-      <c r="M114" s="13" t="inlineStr">
-        <is>
-          <t>139.64</t>
-        </is>
-      </c>
-      <c r="N114" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O114" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A114" s="12" t="n"/>
+      <c r="H114" s="13" t="n"/>
+      <c r="I114" s="13" t="n"/>
+      <c r="J114" s="13" t="n"/>
+      <c r="K114" s="13" t="n"/>
+      <c r="L114" s="13" t="n"/>
+      <c r="M114" s="13" t="n"/>
+      <c r="N114" s="13" t="n"/>
+      <c r="O114" s="13" t="n"/>
     </row>
     <row r="115" ht="15.75" customHeight="1" s="9">
-      <c r="A115" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 14:00:40</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Barito Putera vs Persipal Babel United</t>
-        </is>
-      </c>
-      <c r="H115" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" s="13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J115" s="13" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="K115" s="13" t="inlineStr">
-        <is>
-          <t>110.40</t>
-        </is>
-      </c>
-      <c r="L115" s="13" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="M115" s="13" t="inlineStr">
-        <is>
-          <t>199.82</t>
-        </is>
-      </c>
-      <c r="N115" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O115" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A115" s="12" t="n"/>
+      <c r="H115" s="13" t="n"/>
+      <c r="I115" s="13" t="n"/>
+      <c r="J115" s="13" t="n"/>
+      <c r="K115" s="13" t="n"/>
+      <c r="L115" s="13" t="n"/>
+      <c r="M115" s="13" t="n"/>
+      <c r="N115" s="13" t="n"/>
+      <c r="O115" s="13" t="n"/>
     </row>
     <row r="116" ht="15.75" customHeight="1" s="9">
-      <c r="A116" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 14:41:40</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Турция</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Bets10</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Tk54</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Chabab Mohammedia - Union Sportif Amal Tiznit</t>
-        </is>
-      </c>
-      <c r="H116" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" s="13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J116" s="13" t="inlineStr">
-        <is>
-          <t>Ламер</t>
-        </is>
-      </c>
-      <c r="K116" s="13" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L116" s="13" t="inlineStr">
-        <is>
-          <t>-25.00</t>
-        </is>
-      </c>
-      <c r="M116" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N116" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O116" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A116" s="12" t="n"/>
+      <c r="H116" s="13" t="n"/>
+      <c r="I116" s="13" t="n"/>
+      <c r="J116" s="13" t="n"/>
+      <c r="K116" s="13" t="n"/>
+      <c r="L116" s="13" t="n"/>
+      <c r="M116" s="13" t="n"/>
+      <c r="N116" s="13" t="n"/>
+      <c r="O116" s="13" t="n"/>
     </row>
     <row r="117" ht="15.75" customHeight="1" s="9">
-      <c r="A117" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 14:42:26</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Турция</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Bets10</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Tk54</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Chabab Mohammedia - Union Sportif Amal Tiznit</t>
-        </is>
-      </c>
-      <c r="H117" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" s="13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J117" s="13" t="inlineStr">
-        <is>
-          <t>Ламер</t>
-        </is>
-      </c>
-      <c r="K117" s="13" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L117" s="13" t="inlineStr">
-        <is>
-          <t>-25.00</t>
-        </is>
-      </c>
-      <c r="M117" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N117" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O117" s="13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A117" s="12" t="n"/>
+      <c r="H117" s="13" t="n"/>
+      <c r="I117" s="13" t="n"/>
+      <c r="J117" s="13" t="n"/>
+      <c r="K117" s="13" t="n"/>
+      <c r="L117" s="13" t="n"/>
+      <c r="M117" s="13" t="n"/>
+      <c r="N117" s="13" t="n"/>
+      <c r="O117" s="13" t="n"/>
     </row>
     <row r="118" ht="15.75" customHeight="1" s="9">
-      <c r="A118" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 23:01:59</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="H118" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" s="13" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J118" s="13" t="inlineStr">
-        <is>
-          <t>Тони</t>
-        </is>
-      </c>
-      <c r="K118" s="13" t="inlineStr">
-        <is>
-          <t>21.34</t>
-        </is>
-      </c>
-      <c r="L118" s="13" t="inlineStr">
-        <is>
-          <t>26.25</t>
-        </is>
-      </c>
-      <c r="M118" s="13" t="inlineStr">
-        <is>
-          <t>47.59</t>
-        </is>
-      </c>
-      <c r="N118" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O118" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A118" s="12" t="n"/>
+      <c r="H118" s="13" t="n"/>
+      <c r="I118" s="13" t="n"/>
+      <c r="J118" s="13" t="n"/>
+      <c r="K118" s="13" t="n"/>
+      <c r="L118" s="13" t="n"/>
+      <c r="M118" s="13" t="n"/>
+      <c r="N118" s="13" t="n"/>
+      <c r="O118" s="13" t="n"/>
     </row>
     <row r="119" ht="15.75" customHeight="1" s="9">
-      <c r="A119" s="12" t="inlineStr">
-        <is>
-          <t>27.09.2025 23:03:22</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Обычный</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="H119" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" s="13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J119" s="13" t="inlineStr">
-        <is>
-          <t>Тони</t>
-        </is>
-      </c>
-      <c r="K119" s="13" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="L119" s="13" t="inlineStr">
-        <is>
-          <t>-100.00</t>
-        </is>
-      </c>
-      <c r="M119" s="13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N119" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="O119" s="13" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="A119" s="12" t="n"/>
+      <c r="H119" s="13" t="n"/>
+      <c r="I119" s="13" t="n"/>
+      <c r="J119" s="13" t="n"/>
+      <c r="K119" s="13" t="n"/>
+      <c r="L119" s="13" t="n"/>
+      <c r="M119" s="13" t="n"/>
+      <c r="N119" s="13" t="n"/>
+      <c r="O119" s="13" t="n"/>
     </row>
     <row r="120" ht="15.75" customHeight="1" s="9">
       <c r="A120" s="12" t="n"/>
